--- a/25th June Batch/class 07.01.2023 - clt excel.xlsx
+++ b/25th June Batch/class 07.01.2023 - clt excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th June Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B08F9-A0A0-42B9-BD64-AF5D4FA5D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C4901C-452A-4EBC-B912-41FED4A256DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +585,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L21">
         <v>20</v>
       </c>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L22">
         <v>100</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I23" t="s">
         <v>9</v>
       </c>
@@ -630,7 +630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I24" t="s">
         <v>10</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
         <v>11</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I26" t="s">
         <v>12</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I27" t="s">
         <v>13</v>
       </c>
@@ -672,6 +672,26 @@
       </c>
       <c r="K27" s="1">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
